--- a/equipment/项目部成员设备表单.xlsx
+++ b/equipment/项目部成员设备表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>项目部成员表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>张海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁凯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,6 +185,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -197,15 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,70 +516,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -599,14 +595,14 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -622,14 +618,14 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -645,14 +641,14 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="1">
         <v>1</v>
       </c>
@@ -668,14 +664,14 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -688,23 +684,19 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>1</v>
       </c>
@@ -713,89 +705,78 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2">
-        <f>SUM(C5:C12)</f>
+      <c r="C12" s="2">
+        <f>SUM(C5:C11)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(D5:D11)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SUM(E5:E11)</f>
         <v>6</v>
       </c>
-      <c r="D13" s="2">
-        <f>SUM(D5:D12)</f>
+      <c r="F12" s="2">
+        <f>SUM(F5:F11)</f>
         <v>6</v>
       </c>
-      <c r="E13" s="2">
-        <f>SUM(E5:E12)</f>
-        <v>7</v>
-      </c>
-      <c r="F13" s="2">
-        <f>SUM(F5:F12)</f>
-        <v>7</v>
-      </c>
-      <c r="G13" s="2">
-        <f>SUM(G5:G12)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G12" s="2">
+        <f>SUM(G5:G11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
+  <mergeCells count="28">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -804,22 +785,12 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/equipment/项目部成员设备表单.xlsx
+++ b/equipment/项目部成员设备表单.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马瑞阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马圣秦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,10 @@
   </si>
   <si>
     <t>鼠标垫自带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,15 +185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,6 +193,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +507,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,70 +516,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5"/>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -595,14 +595,14 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -618,60 +618,60 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -686,15 +686,15 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -705,15 +705,15 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -722,15 +722,15 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="2">
         <f>SUM(C5:C11)</f>
         <v>5</v>
@@ -753,8 +753,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -763,11 +763,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
@@ -776,21 +785,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/equipment/项目部成员设备表单.xlsx
+++ b/equipment/项目部成员设备表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>项目部成员表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,15 +78,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电脑自带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鼠标垫自带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XXX</t>
+    <t>张琦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +177,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -194,13 +192,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,70 +508,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -595,14 +587,14 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -618,14 +610,14 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -641,14 +633,14 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1">
         <v>1</v>
       </c>
@@ -664,14 +656,14 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -686,15 +678,15 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -705,70 +697,59 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2">
-        <f>SUM(C5:C11)</f>
+      <c r="C11" s="2">
+        <f>SUM(C5:C10)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="2">
-        <f>SUM(D5:D11)</f>
+      <c r="D11" s="2">
+        <f>SUM(D5:D10)</f>
         <v>5</v>
       </c>
-      <c r="E12" s="2">
-        <f>SUM(E5:E11)</f>
+      <c r="E11" s="2">
+        <f>SUM(E5:E10)</f>
         <v>6</v>
       </c>
-      <c r="F12" s="2">
-        <f>SUM(F5:F11)</f>
+      <c r="F11" s="2">
+        <f>SUM(F5:F10)</f>
         <v>6</v>
       </c>
-      <c r="G12" s="2">
-        <f>SUM(G5:G11)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G11" s="2">
+        <f>SUM(G5:G10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+  <mergeCells count="26">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -777,20 +758,12 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/equipment/项目部成员设备表单.xlsx
+++ b/equipment/项目部成员设备表单.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年佳茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张明媛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>张琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,14 +186,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -568,10 +568,10 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -587,35 +587,29 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="1">
@@ -633,14 +627,14 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <v>1</v>
       </c>
@@ -653,23 +647,19 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>1</v>
       </c>
@@ -678,78 +668,57 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
+        <f>SUM(C5:C9)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(D5:D9)</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(E5:E9)</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUM(F5:F9)</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(G5:G9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="2">
-        <f>SUM(C5:C10)</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(D5:D10)</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <f>SUM(E5:E10)</f>
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
-        <f>SUM(F5:F10)</f>
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <f>SUM(G5:G10)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A10:B10"/>
+  <mergeCells count="24">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -758,12 +727,12 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:I4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
